--- a/asset/就職作品プレゼンテーション_学生配布資料/就職作品プレゼンテーション_情報入力準備シート.xlsx
+++ b/asset/就職作品プレゼンテーション_学生配布資料/就職作品プレゼンテーション_情報入力準備シート.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\HAL\3\就職作品プレゼンテーション_学生配布資料\就職作品プレゼンテーション_学生配布資料\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\HAL\就職作品\Stinger\asset\就職作品プレゼンテーション_学生配布資料\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7E073C9-7DA6-44C5-BF99-5DC59B81B229}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9AC3C9DC-525C-4EB1-A24E-24BCB51093D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" firstSheet="4" activeTab="5" xr2:uid="{34E08E12-6FF0-2348-8D5E-ADDC517A03CE}"/>
+    <workbookView xWindow="2730" yWindow="2025" windowWidth="21585" windowHeight="11325" firstSheet="1" activeTab="1" xr2:uid="{34E08E12-6FF0-2348-8D5E-ADDC517A03CE}"/>
   </bookViews>
   <sheets>
     <sheet name="STEP1（学生基本情報）" sheetId="1" r:id="rId1"/>
@@ -20,28 +20,17 @@
     <sheet name="STEP5（各画像・GoogleDriveリンク情報）" sheetId="4" r:id="rId5"/>
     <sheet name="STEP6（Teams会議リンク情報）" sheetId="6" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="191028"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="106">
   <si>
     <t>■Step1：学生基本情報</t>
     <rPh sb="7" eb="9">
@@ -2290,6 +2279,18 @@
   </si>
   <si>
     <t>https://teams.microsoft.com/l/meetup-join/19%3ameeting_ZTVlMGQ0MDEtNGNjMC00ZWIxLTllYTktYmIzMzVkNWE4NGFl%40thread.v2/0?context=%7b%22Tid%22%3a%228d41d6d7-36ce-4e0c-8c6d-cf2c54c39039%22%2c%22Oid%22%3a%22a568245d-cdcd-4ce1-aab2-30719c1d0697%22%7d</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>https://drive.google.com/drive/folders/159kc9ao2pLgCy8p9qigcIkPzQaVjxIMG?usp=sharing</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1M3vQ_4vFORTF7o6EKHyesz8TEivRhbkL/view?usp=sharing</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -2736,7 +2737,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="56">
+  <cellXfs count="58">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2885,6 +2886,12 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="15" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="14" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -2897,11 +2904,11 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="14" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="15" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2954,8 +2961,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="13729283" y="987571"/>
-          <a:ext cx="5839203" cy="6639303"/>
+          <a:off x="14022897" y="994561"/>
+          <a:ext cx="5975525" cy="6284520"/>
           <a:chOff x="14561671" y="1044388"/>
           <a:chExt cx="6236447" cy="6633136"/>
         </a:xfrm>
@@ -3172,8 +3179,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="14546580" y="1018540"/>
-          <a:ext cx="5768340" cy="12611100"/>
+          <a:off x="14868525" y="1022350"/>
+          <a:ext cx="5905500" cy="12420600"/>
           <a:chOff x="15379700" y="1028700"/>
           <a:chExt cx="6134100" cy="12979400"/>
         </a:xfrm>
@@ -3351,9 +3358,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 テーマ">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office テーマ">
   <a:themeElements>
-    <a:clrScheme name="Office 2013 - 2022">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -3391,7 +3398,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2013 - 2022">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -3497,7 +3504,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2013 - 2022">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -3639,7 +3646,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -3650,23 +3657,23 @@
   <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView topLeftCell="A4" zoomScale="109" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.54296875" defaultRowHeight="19.8"/>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="19.5"/>
   <cols>
-    <col min="1" max="1" width="17.7265625" customWidth="1"/>
+    <col min="1" max="1" width="17.77734375" customWidth="1"/>
     <col min="2" max="2" width="35" customWidth="1"/>
-    <col min="3" max="3" width="54.81640625" customWidth="1"/>
-    <col min="4" max="4" width="55.26953125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="54.77734375" customWidth="1"/>
+    <col min="4" max="4" width="55.21875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="40.799999999999997">
+    <row r="1" spans="1:5" ht="40.5">
       <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="33" thickBot="1">
+    <row r="2" spans="1:5" ht="33.75" thickBot="1">
       <c r="A2" s="1"/>
       <c r="E2" s="42" t="s">
         <v>1</v>
@@ -3686,7 +3693,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="39.6">
+    <row r="4" spans="1:5" ht="39">
       <c r="A4" s="21" t="s">
         <v>6</v>
       </c>
@@ -3700,7 +3707,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="39.6">
+    <row r="5" spans="1:5" ht="39">
       <c r="A5" s="22" t="s">
         <v>9</v>
       </c>
@@ -3714,7 +3721,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="39.6">
+    <row r="6" spans="1:5" ht="39">
       <c r="A6" s="21" t="s">
         <v>12</v>
       </c>
@@ -3728,11 +3735,11 @@
         <v>14</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="39.6">
+    <row r="7" spans="1:5" ht="39">
       <c r="A7" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="B7" s="54" t="s">
+      <c r="B7" s="50" t="s">
         <v>94</v>
       </c>
       <c r="C7" s="26" t="s">
@@ -3742,7 +3749,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="59.4">
+    <row r="8" spans="1:5" ht="39">
       <c r="A8" s="21" t="s">
         <v>18</v>
       </c>
@@ -3754,7 +3761,7 @@
       </c>
       <c r="D8" s="3"/>
     </row>
-    <row r="9" spans="1:5" ht="39.6">
+    <row r="9" spans="1:5" ht="39">
       <c r="A9" s="22" t="s">
         <v>20</v>
       </c>
@@ -3766,7 +3773,7 @@
       </c>
       <c r="D9" s="40"/>
     </row>
-    <row r="10" spans="1:5" ht="39.6">
+    <row r="10" spans="1:5" ht="39">
       <c r="A10" s="21" t="s">
         <v>22</v>
       </c>
@@ -3780,7 +3787,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="40.200000000000003" thickBot="1">
+    <row r="11" spans="1:5" ht="39.75" thickBot="1">
       <c r="A11" s="23" t="s">
         <v>25</v>
       </c>
@@ -3809,25 +3816,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2808ACFE-2825-9746-9B29-5A8114AAA269}">
   <dimension ref="A1:F5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.54296875" defaultRowHeight="19.8"/>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="19.5"/>
   <cols>
-    <col min="1" max="1" width="17.7265625" customWidth="1"/>
-    <col min="2" max="2" width="35.81640625" customWidth="1"/>
-    <col min="3" max="3" width="8.54296875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="54.81640625" customWidth="1"/>
-    <col min="5" max="5" width="55.26953125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.77734375" customWidth="1"/>
+    <col min="2" max="2" width="35.77734375" customWidth="1"/>
+    <col min="3" max="3" width="8.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="54.77734375" customWidth="1"/>
+    <col min="5" max="5" width="55.21875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="40.799999999999997">
+    <row r="1" spans="1:6" ht="40.5">
       <c r="A1" s="8" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="33" thickBot="1">
+    <row r="2" spans="1:6" ht="33.75" thickBot="1">
       <c r="A2" s="1"/>
       <c r="F2" s="42" t="s">
         <v>1</v>
@@ -3850,7 +3857,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="59.4">
+    <row r="4" spans="1:6" ht="58.5">
       <c r="A4" s="22" t="s">
         <v>29</v>
       </c>
@@ -3867,7 +3874,9 @@
       <c r="A5" s="29" t="s">
         <v>32</v>
       </c>
-      <c r="B5" s="33"/>
+      <c r="B5" s="33" t="s">
+        <v>105</v>
+      </c>
       <c r="C5" s="31">
         <f>LEN(B5)-(LEN(B5)-LEN(SUBSTITUTE(B5,CHAR(10),"")))</f>
         <v>0</v>
@@ -3890,25 +3899,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B1752433-EFB0-234C-A846-C4522D008E42}">
   <dimension ref="A1:F8"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
+    <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.54296875" defaultRowHeight="19.8"/>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="19.5"/>
   <cols>
-    <col min="1" max="1" width="17.7265625" customWidth="1"/>
+    <col min="1" max="1" width="17.77734375" customWidth="1"/>
     <col min="2" max="2" width="35" customWidth="1"/>
-    <col min="3" max="3" width="8.54296875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="54.81640625" customWidth="1"/>
-    <col min="5" max="5" width="55.26953125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="54.77734375" customWidth="1"/>
+    <col min="5" max="5" width="55.21875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="40.799999999999997">
+    <row r="1" spans="1:6" ht="40.5">
       <c r="A1" s="8" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="33" thickBot="1">
+    <row r="2" spans="1:6" ht="33.75" thickBot="1">
       <c r="A2" s="1"/>
       <c r="F2" s="42" t="s">
         <v>1</v>
@@ -3940,7 +3949,7 @@
       <c r="D4" s="9" t="s">
         <v>71</v>
       </c>
-      <c r="E4" s="50" t="s">
+      <c r="E4" s="52" t="s">
         <v>37</v>
       </c>
     </row>
@@ -3953,7 +3962,7 @@
       <c r="D5" s="9" t="s">
         <v>72</v>
       </c>
-      <c r="E5" s="51"/>
+      <c r="E5" s="53"/>
     </row>
     <row r="6" spans="1:6" ht="42" customHeight="1">
       <c r="A6" s="21" t="s">
@@ -3971,7 +3980,7 @@
       </c>
       <c r="E6" s="10"/>
     </row>
-    <row r="7" spans="1:6" ht="103.05" customHeight="1">
+    <row r="7" spans="1:6" ht="103.15" customHeight="1">
       <c r="A7" s="21" t="s">
         <v>41</v>
       </c>
@@ -4015,25 +4024,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4EE7F1D1-148F-8043-8047-A13448A6C88D}">
   <dimension ref="A1:F9"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
+    <sheetView topLeftCell="B1" workbookViewId="0">
       <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.54296875" defaultRowHeight="19.8"/>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="19.5"/>
   <cols>
-    <col min="1" max="1" width="17.7265625" customWidth="1"/>
-    <col min="2" max="2" width="35.81640625" customWidth="1"/>
-    <col min="3" max="3" width="8.54296875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="54.81640625" customWidth="1"/>
-    <col min="5" max="5" width="55.26953125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.77734375" customWidth="1"/>
+    <col min="2" max="2" width="35.77734375" customWidth="1"/>
+    <col min="3" max="3" width="8.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="54.77734375" customWidth="1"/>
+    <col min="5" max="5" width="55.21875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="40.799999999999997">
+    <row r="1" spans="1:6" ht="40.5">
       <c r="A1" s="8" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="32.4">
+    <row r="2" spans="1:6" ht="33">
       <c r="A2" s="1"/>
       <c r="F2" s="42" t="s">
         <v>1</v>
@@ -4056,7 +4065,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="59.4">
+    <row r="4" spans="1:6" ht="58.5">
       <c r="A4" s="2" t="s">
         <v>47</v>
       </c>
@@ -4069,7 +4078,7 @@
       </c>
       <c r="E4" s="12"/>
     </row>
-    <row r="5" spans="1:6" ht="79.2">
+    <row r="5" spans="1:6" ht="78">
       <c r="A5" s="2" t="s">
         <v>50</v>
       </c>
@@ -4084,7 +4093,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="59.4">
+    <row r="6" spans="1:6" ht="58.5">
       <c r="A6" s="2" t="s">
         <v>54</v>
       </c>
@@ -4095,11 +4104,11 @@
       <c r="D6" s="16" t="s">
         <v>56</v>
       </c>
-      <c r="E6" s="52" t="s">
+      <c r="E6" s="54" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="59.4">
+    <row r="7" spans="1:6" ht="58.5">
       <c r="A7" s="2" t="s">
         <v>58</v>
       </c>
@@ -4110,9 +4119,9 @@
       <c r="D7" s="16" t="s">
         <v>60</v>
       </c>
-      <c r="E7" s="53"/>
-    </row>
-    <row r="8" spans="1:6" ht="59.4">
+      <c r="E7" s="55"/>
+    </row>
+    <row r="8" spans="1:6" ht="58.5">
       <c r="A8" s="2" t="s">
         <v>61</v>
       </c>
@@ -4123,9 +4132,9 @@
       <c r="D8" s="16" t="s">
         <v>62</v>
       </c>
-      <c r="E8" s="53"/>
-    </row>
-    <row r="9" spans="1:6" ht="59.4">
+      <c r="E8" s="55"/>
+    </row>
+    <row r="9" spans="1:6" ht="58.5">
       <c r="A9" s="2" t="s">
         <v>63</v>
       </c>
@@ -4136,7 +4145,7 @@
       <c r="D9" s="16" t="s">
         <v>64</v>
       </c>
-      <c r="E9" s="53"/>
+      <c r="E9" s="55"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -4153,23 +4162,23 @@
   <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView zoomScale="89" workbookViewId="0">
-      <selection activeCell="D27" sqref="D27"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.54296875" defaultRowHeight="19.8"/>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="19.5"/>
   <cols>
-    <col min="1" max="1" width="20.1796875" customWidth="1"/>
+    <col min="1" max="1" width="20.21875" customWidth="1"/>
     <col min="2" max="2" width="35" customWidth="1"/>
-    <col min="3" max="3" width="54.81640625" customWidth="1"/>
-    <col min="4" max="4" width="55.26953125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="54.77734375" customWidth="1"/>
+    <col min="4" max="4" width="55.21875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="40.799999999999997">
+    <row r="1" spans="1:5" ht="40.5">
       <c r="A1" s="8" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="33" thickBot="1">
+    <row r="2" spans="1:5" ht="33.75" thickBot="1">
       <c r="A2" s="1"/>
       <c r="E2" s="42" t="s">
         <v>1</v>
@@ -4193,7 +4202,9 @@
       <c r="A4" s="21" t="s">
         <v>65</v>
       </c>
-      <c r="B4" s="28"/>
+      <c r="B4" s="57" t="s">
+        <v>104</v>
+      </c>
       <c r="C4" s="36" t="s">
         <v>73</v>
       </c>
@@ -4213,7 +4224,9 @@
       <c r="A6" s="23" t="s">
         <v>67</v>
       </c>
-      <c r="B6" s="33"/>
+      <c r="B6" s="56" t="s">
+        <v>103</v>
+      </c>
       <c r="C6" s="37" t="s">
         <v>75</v>
       </c>
@@ -4223,8 +4236,12 @@
     </row>
   </sheetData>
   <phoneticPr fontId="2"/>
+  <hyperlinks>
+    <hyperlink ref="B6" r:id="rId1" xr:uid="{1E195485-7380-4FF3-BCD5-68F82BD482EC}"/>
+    <hyperlink ref="B4" r:id="rId2" tooltip="https://drive.google.com/file/d/1M3vQ_4vFORTF7o6EKHyesz8TEivRhbkL/view?usp=sharing" xr:uid="{70492577-D87A-4118-98D9-E3C49687F36A}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <drawing r:id="rId3"/>
 </worksheet>
 </file>
 
@@ -4232,24 +4249,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D266291A-D3DF-0A40-B68B-E14D6C8EBC3A}">
   <dimension ref="A1:E11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="83" workbookViewId="0">
+    <sheetView zoomScale="83" workbookViewId="0">
       <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.54296875" defaultRowHeight="19.8"/>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="19.5"/>
   <cols>
-    <col min="1" max="1" width="25.54296875" customWidth="1"/>
-    <col min="2" max="2" width="63.1796875" customWidth="1"/>
-    <col min="3" max="3" width="54.81640625" customWidth="1"/>
+    <col min="1" max="1" width="25.5546875" customWidth="1"/>
+    <col min="2" max="2" width="63.21875" customWidth="1"/>
+    <col min="3" max="3" width="54.77734375" customWidth="1"/>
     <col min="4" max="4" width="28" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="40.799999999999997">
+    <row r="1" spans="1:5" ht="40.5">
       <c r="A1" s="8" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="33" thickBot="1">
+    <row r="2" spans="1:5" ht="33.75" thickBot="1">
       <c r="A2" s="1"/>
       <c r="E2" s="42" t="s">
         <v>1</v>
@@ -4269,11 +4286,11 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="59.4">
+    <row r="4" spans="1:5" ht="58.5">
       <c r="A4" s="47" t="s">
         <v>80</v>
       </c>
-      <c r="B4" s="55" t="s">
+      <c r="B4" s="51" t="s">
         <v>95</v>
       </c>
       <c r="C4" s="36" t="s">
@@ -4281,11 +4298,11 @@
       </c>
       <c r="D4" s="3"/>
     </row>
-    <row r="5" spans="1:5" ht="59.4">
+    <row r="5" spans="1:5" ht="58.5">
       <c r="A5" s="47" t="s">
         <v>79</v>
       </c>
-      <c r="B5" s="55" t="s">
+      <c r="B5" s="51" t="s">
         <v>96</v>
       </c>
       <c r="C5" s="36" t="s">
@@ -4293,11 +4310,11 @@
       </c>
       <c r="D5" s="3"/>
     </row>
-    <row r="6" spans="1:5" ht="59.4">
+    <row r="6" spans="1:5" ht="58.5">
       <c r="A6" s="47" t="s">
         <v>78</v>
       </c>
-      <c r="B6" s="55" t="s">
+      <c r="B6" s="51" t="s">
         <v>97</v>
       </c>
       <c r="C6" s="36" t="s">
@@ -4305,11 +4322,11 @@
       </c>
       <c r="D6" s="3"/>
     </row>
-    <row r="7" spans="1:5" ht="59.4">
+    <row r="7" spans="1:5" ht="58.5">
       <c r="A7" s="47" t="s">
         <v>81</v>
       </c>
-      <c r="B7" s="55" t="s">
+      <c r="B7" s="51" t="s">
         <v>98</v>
       </c>
       <c r="C7" s="36" t="s">
@@ -4317,11 +4334,11 @@
       </c>
       <c r="D7" s="3"/>
     </row>
-    <row r="8" spans="1:5" ht="59.4">
+    <row r="8" spans="1:5" ht="58.5">
       <c r="A8" s="47" t="s">
         <v>82</v>
       </c>
-      <c r="B8" s="55" t="s">
+      <c r="B8" s="51" t="s">
         <v>99</v>
       </c>
       <c r="C8" s="36" t="s">
@@ -4329,11 +4346,11 @@
       </c>
       <c r="D8" s="3"/>
     </row>
-    <row r="9" spans="1:5" ht="59.4">
+    <row r="9" spans="1:5" ht="58.5">
       <c r="A9" s="47" t="s">
         <v>83</v>
       </c>
-      <c r="B9" s="55" t="s">
+      <c r="B9" s="51" t="s">
         <v>100</v>
       </c>
       <c r="C9" s="36" t="s">
@@ -4341,11 +4358,11 @@
       </c>
       <c r="D9" s="3"/>
     </row>
-    <row r="10" spans="1:5" ht="59.4">
+    <row r="10" spans="1:5" ht="58.5">
       <c r="A10" s="47" t="s">
         <v>84</v>
       </c>
-      <c r="B10" s="55" t="s">
+      <c r="B10" s="51" t="s">
         <v>101</v>
       </c>
       <c r="C10" s="36" t="s">
@@ -4353,7 +4370,7 @@
       </c>
       <c r="D10" s="3"/>
     </row>
-    <row r="11" spans="1:5" ht="60" thickBot="1">
+    <row r="11" spans="1:5" ht="59.25" thickBot="1">
       <c r="A11" s="48" t="s">
         <v>85</v>
       </c>
@@ -4383,6 +4400,30 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="214516ad-30b3-4e82-9e31-d9abf9a085e8" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="52801ccf-b025-40a5-bb2d-5fc5cb528cef">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <_x5b66__x5e74_ xmlns="52801ccf-b025-40a5-bb2d-5fc5cb528cef" xsi:nil="true"/>
+    <_x30bf__x30b0_ xmlns="52801ccf-b025-40a5-bb2d-5fc5cb528cef" xsi:nil="true"/>
+    <_Flow_SignoffStatus xmlns="52801ccf-b025-40a5-bb2d-5fc5cb528cef" xsi:nil="true"/>
+    <_x4f5c__x6210__x65e5_ xmlns="52801ccf-b025-40a5-bb2d-5fc5cb528cef" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x010100226CB8C6968C904F9DBF96684D1C6194" ma:contentTypeVersion="23" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="12c173f0fc5c6fc0fd0293a63da4cb59">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="52801ccf-b025-40a5-bb2d-5fc5cb528cef" xmlns:ns3="214516ad-30b3-4e82-9e31-d9abf9a085e8" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="050145dfa9750e3da6db3a11e9fca638" ns2:_="" ns3:_="">
     <xsd:import namespace="52801ccf-b025-40a5-bb2d-5fc5cb528cef"/>
@@ -4669,45 +4710,10 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="214516ad-30b3-4e82-9e31-d9abf9a085e8" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="52801ccf-b025-40a5-bb2d-5fc5cb528cef">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <_x5b66__x5e74_ xmlns="52801ccf-b025-40a5-bb2d-5fc5cb528cef" xsi:nil="true"/>
-    <_x30bf__x30b0_ xmlns="52801ccf-b025-40a5-bb2d-5fc5cb528cef" xsi:nil="true"/>
-    <_Flow_SignoffStatus xmlns="52801ccf-b025-40a5-bb2d-5fc5cb528cef" xsi:nil="true"/>
-    <_x4f5c__x6210__x65e5_ xmlns="52801ccf-b025-40a5-bb2d-5fc5cb528cef" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FB57451A-52F2-4206-834F-4C35AA45CE36}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{47E7B5EF-5B50-4E0B-A564-09CFCA71055C}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="52801ccf-b025-40a5-bb2d-5fc5cb528cef"/>
-    <ds:schemaRef ds:uri="214516ad-30b3-4e82-9e31-d9abf9a085e8"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -4730,9 +4736,20 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{47E7B5EF-5B50-4E0B-A564-09CFCA71055C}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FB57451A-52F2-4206-834F-4C35AA45CE36}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="52801ccf-b025-40a5-bb2d-5fc5cb528cef"/>
+    <ds:schemaRef ds:uri="214516ad-30b3-4e82-9e31-d9abf9a085e8"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/asset/就職作品プレゼンテーション_学生配布資料/就職作品プレゼンテーション_情報入力準備シート.xlsx
+++ b/asset/就職作品プレゼンテーション_学生配布資料/就職作品プレゼンテーション_情報入力準備シート.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\HAL\就職作品\Stinger\asset\就職作品プレゼンテーション_学生配布資料\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\HAL\3\Stinger\asset\就職作品プレゼンテーション_学生配布資料\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9AC3C9DC-525C-4EB1-A24E-24BCB51093D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A70A404F-3A51-493D-AC62-DE2A765BCD8E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2730" yWindow="2025" windowWidth="21585" windowHeight="11325" firstSheet="1" activeTab="1" xr2:uid="{34E08E12-6FF0-2348-8D5E-ADDC517A03CE}"/>
+    <workbookView xWindow="11424" yWindow="0" windowWidth="11712" windowHeight="13056" firstSheet="4" activeTab="5" xr2:uid="{34E08E12-6FF0-2348-8D5E-ADDC517A03CE}"/>
   </bookViews>
   <sheets>
     <sheet name="STEP1（学生基本情報）" sheetId="1" r:id="rId1"/>
@@ -20,17 +20,28 @@
     <sheet name="STEP5（各画像・GoogleDriveリンク情報）" sheetId="4" r:id="rId5"/>
     <sheet name="STEP6（Teams会議リンク情報）" sheetId="6" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="109">
   <si>
     <t>■Step1：学生基本情報</t>
     <rPh sb="7" eb="9">
@@ -2286,11 +2297,33 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
+    <t>https://drive.google.com/file/d/1XFCfyWv5vLaWZZ2wDa0WvADpUyaWT8tJ/view?usp=sharing</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>本作品は、キモいエネミーAIを中心とした作品になっています。
+プレイヤーのアクションには、エネミーのキモい要素を活かす要素として、パリィアクションにこだわりました。
+技術的には、GPUスキニングとボーンにOBBの当たり判定を付属する部分に力を入れました。</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>〇プロフィール
+・名前　　：林 祐也 (はやし ゆうや)
+・希望職種：ゲームプログラマー
+・生年月日：2003/11/07
+・趣味　　：ゲーム
+普段ゲームをしている仲間に、プレイスタイルがキモすぎる、とよく言われるので、そのキモさを活かせるエネミーAIに力を入れて作品を制作しました。</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>キモいエネミーを制作するために、ビヘイビアツリーを参考にしてエネミーAIを制作しました。
+キモさを出すために、「同じ攻撃に見せかけて追加の攻撃が来る」や「現在の攻撃モーションをキャンセルして、別の攻撃に移行する」などを意識して、AIを制作しました。
+AIを作りやすくする為に、IMGUIを使用して、使用中のノードを確認できるようなデバッグ画面を作成したり、タスクごとの当たり判定の設定が少しで済むように、ボーンに当たり判定を付属させる形にしました。
+また、スキニングの処理が重くデバッグビルドで40FPSしか出なかったのでGPUスキニングにやり方を変えて120FPS以上出るようにしました。</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
     <t>https://drive.google.com/file/d/1M3vQ_4vFORTF7o6EKHyesz8TEivRhbkL/view?usp=sharing</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -2737,7 +2770,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="58">
+  <cellXfs count="59">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2892,6 +2925,12 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="14" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="15" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -2904,11 +2943,8 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="15" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2961,8 +2997,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="14022897" y="994561"/>
-          <a:ext cx="5975525" cy="6284520"/>
+          <a:off x="13729283" y="987571"/>
+          <a:ext cx="5839203" cy="6387634"/>
           <a:chOff x="14561671" y="1044388"/>
           <a:chExt cx="6236447" cy="6633136"/>
         </a:xfrm>
@@ -3179,8 +3215,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="14868525" y="1022350"/>
-          <a:ext cx="5905500" cy="12420600"/>
+          <a:off x="14546580" y="1018540"/>
+          <a:ext cx="5768340" cy="12611100"/>
           <a:chOff x="15379700" y="1028700"/>
           <a:chExt cx="6134100" cy="12979400"/>
         </a:xfrm>
@@ -3358,9 +3394,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office テーマ">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 テーマ">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -3398,7 +3434,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -3504,7 +3540,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -3646,7 +3682,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -3657,23 +3693,23 @@
   <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView topLeftCell="A4" zoomScale="109" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="19.5"/>
+  <sheetFormatPr defaultColWidth="11.54296875" defaultRowHeight="19.8"/>
   <cols>
-    <col min="1" max="1" width="17.77734375" customWidth="1"/>
+    <col min="1" max="1" width="17.81640625" customWidth="1"/>
     <col min="2" max="2" width="35" customWidth="1"/>
-    <col min="3" max="3" width="54.77734375" customWidth="1"/>
-    <col min="4" max="4" width="55.21875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="54.81640625" customWidth="1"/>
+    <col min="4" max="4" width="55.1796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="40.5">
+    <row r="1" spans="1:5" ht="40.799999999999997">
       <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="33.75" thickBot="1">
+    <row r="2" spans="1:5" ht="33" thickBot="1">
       <c r="A2" s="1"/>
       <c r="E2" s="42" t="s">
         <v>1</v>
@@ -3693,7 +3729,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="39">
+    <row r="4" spans="1:5" ht="39.6">
       <c r="A4" s="21" t="s">
         <v>6</v>
       </c>
@@ -3707,7 +3743,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="39">
+    <row r="5" spans="1:5" ht="39.6">
       <c r="A5" s="22" t="s">
         <v>9</v>
       </c>
@@ -3721,7 +3757,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="39">
+    <row r="6" spans="1:5" ht="39.6">
       <c r="A6" s="21" t="s">
         <v>12</v>
       </c>
@@ -3735,7 +3771,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="39">
+    <row r="7" spans="1:5" ht="39.6">
       <c r="A7" s="21" t="s">
         <v>15</v>
       </c>
@@ -3749,7 +3785,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="39">
+    <row r="8" spans="1:5" ht="39.6">
       <c r="A8" s="21" t="s">
         <v>18</v>
       </c>
@@ -3761,7 +3797,7 @@
       </c>
       <c r="D8" s="3"/>
     </row>
-    <row r="9" spans="1:5" ht="39">
+    <row r="9" spans="1:5" ht="39.6">
       <c r="A9" s="22" t="s">
         <v>20</v>
       </c>
@@ -3773,7 +3809,7 @@
       </c>
       <c r="D9" s="40"/>
     </row>
-    <row r="10" spans="1:5" ht="39">
+    <row r="10" spans="1:5" ht="39.6">
       <c r="A10" s="21" t="s">
         <v>22</v>
       </c>
@@ -3787,7 +3823,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="39.75" thickBot="1">
+    <row r="11" spans="1:5" ht="40.200000000000003" thickBot="1">
       <c r="A11" s="23" t="s">
         <v>25</v>
       </c>
@@ -3816,25 +3852,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2808ACFE-2825-9746-9B29-5A8114AAA269}">
   <dimension ref="A1:F5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="19.5"/>
+  <sheetFormatPr defaultColWidth="11.54296875" defaultRowHeight="19.8"/>
   <cols>
-    <col min="1" max="1" width="17.77734375" customWidth="1"/>
-    <col min="2" max="2" width="35.77734375" customWidth="1"/>
-    <col min="3" max="3" width="8.5546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="54.77734375" customWidth="1"/>
-    <col min="5" max="5" width="55.21875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.81640625" customWidth="1"/>
+    <col min="2" max="2" width="35.81640625" customWidth="1"/>
+    <col min="3" max="3" width="8.54296875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="54.81640625" customWidth="1"/>
+    <col min="5" max="5" width="55.1796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="40.5">
+    <row r="1" spans="1:6" ht="40.799999999999997">
       <c r="A1" s="8" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="33.75" thickBot="1">
+    <row r="2" spans="1:6" ht="33" thickBot="1">
       <c r="A2" s="1"/>
       <c r="F2" s="42" t="s">
         <v>1</v>
@@ -3857,7 +3893,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="58.5">
+    <row r="4" spans="1:6" ht="59.4">
       <c r="A4" s="22" t="s">
         <v>29</v>
       </c>
@@ -3875,11 +3911,11 @@
         <v>32</v>
       </c>
       <c r="B5" s="33" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C5" s="31">
         <f>LEN(B5)-(LEN(B5)-LEN(SUBSTITUTE(B5,CHAR(10),"")))</f>
-        <v>0</v>
+        <v>137</v>
       </c>
       <c r="D5" s="7" t="s">
         <v>33</v>
@@ -3899,25 +3935,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B1752433-EFB0-234C-A846-C4522D008E42}">
   <dimension ref="A1:F8"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="19.5"/>
+  <sheetFormatPr defaultColWidth="11.54296875" defaultRowHeight="19.8"/>
   <cols>
-    <col min="1" max="1" width="17.77734375" customWidth="1"/>
+    <col min="1" max="1" width="17.81640625" customWidth="1"/>
     <col min="2" max="2" width="35" customWidth="1"/>
-    <col min="3" max="3" width="8.5546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="54.77734375" customWidth="1"/>
-    <col min="5" max="5" width="55.21875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.54296875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="54.81640625" customWidth="1"/>
+    <col min="5" max="5" width="55.1796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="40.5">
+    <row r="1" spans="1:6" ht="40.799999999999997">
       <c r="A1" s="8" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="33.75" thickBot="1">
+    <row r="2" spans="1:6" ht="33" thickBot="1">
       <c r="A2" s="1"/>
       <c r="F2" s="42" t="s">
         <v>1</v>
@@ -3949,7 +3985,7 @@
       <c r="D4" s="9" t="s">
         <v>71</v>
       </c>
-      <c r="E4" s="52" t="s">
+      <c r="E4" s="54" t="s">
         <v>37</v>
       </c>
     </row>
@@ -3962,7 +3998,7 @@
       <c r="D5" s="9" t="s">
         <v>72</v>
       </c>
-      <c r="E5" s="53"/>
+      <c r="E5" s="55"/>
     </row>
     <row r="6" spans="1:6" ht="42" customHeight="1">
       <c r="A6" s="21" t="s">
@@ -3980,14 +4016,16 @@
       </c>
       <c r="E6" s="10"/>
     </row>
-    <row r="7" spans="1:6" ht="103.15" customHeight="1">
+    <row r="7" spans="1:6" ht="103.2" customHeight="1">
       <c r="A7" s="21" t="s">
         <v>41</v>
       </c>
-      <c r="B7" s="28"/>
+      <c r="B7" s="58" t="s">
+        <v>105</v>
+      </c>
       <c r="C7" s="35">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>125</v>
       </c>
       <c r="D7" s="9" t="s">
         <v>42</v>
@@ -3998,10 +4036,12 @@
       <c r="A8" s="23" t="s">
         <v>43</v>
       </c>
-      <c r="B8" s="33"/>
+      <c r="B8" s="33" t="s">
+        <v>107</v>
+      </c>
       <c r="C8" s="31">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>292</v>
       </c>
       <c r="D8" s="7" t="s">
         <v>44</v>
@@ -4024,25 +4064,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4EE7F1D1-148F-8043-8047-A13448A6C88D}">
   <dimension ref="A1:F9"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
+    <sheetView topLeftCell="B4" workbookViewId="0">
       <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="19.5"/>
+  <sheetFormatPr defaultColWidth="11.54296875" defaultRowHeight="19.8"/>
   <cols>
-    <col min="1" max="1" width="17.77734375" customWidth="1"/>
-    <col min="2" max="2" width="35.77734375" customWidth="1"/>
-    <col min="3" max="3" width="8.5546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="54.77734375" customWidth="1"/>
-    <col min="5" max="5" width="55.21875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.81640625" customWidth="1"/>
+    <col min="2" max="2" width="35.81640625" customWidth="1"/>
+    <col min="3" max="3" width="8.54296875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="54.81640625" customWidth="1"/>
+    <col min="5" max="5" width="55.1796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="40.5">
+    <row r="1" spans="1:6" ht="40.799999999999997">
       <c r="A1" s="8" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="33">
+    <row r="2" spans="1:6" ht="32.4">
       <c r="A2" s="1"/>
       <c r="F2" s="42" t="s">
         <v>1</v>
@@ -4065,7 +4105,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="58.5">
+    <row r="4" spans="1:6" ht="59.4">
       <c r="A4" s="2" t="s">
         <v>47</v>
       </c>
@@ -4078,7 +4118,7 @@
       </c>
       <c r="E4" s="12"/>
     </row>
-    <row r="5" spans="1:6" ht="78">
+    <row r="5" spans="1:6" ht="79.2">
       <c r="A5" s="2" t="s">
         <v>50</v>
       </c>
@@ -4093,7 +4133,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="58.5">
+    <row r="6" spans="1:6" ht="59.4">
       <c r="A6" s="2" t="s">
         <v>54</v>
       </c>
@@ -4104,11 +4144,11 @@
       <c r="D6" s="16" t="s">
         <v>56</v>
       </c>
-      <c r="E6" s="54" t="s">
+      <c r="E6" s="56" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="58.5">
+    <row r="7" spans="1:6" ht="59.4">
       <c r="A7" s="2" t="s">
         <v>58</v>
       </c>
@@ -4119,9 +4159,9 @@
       <c r="D7" s="16" t="s">
         <v>60</v>
       </c>
-      <c r="E7" s="55"/>
-    </row>
-    <row r="8" spans="1:6" ht="58.5">
+      <c r="E7" s="57"/>
+    </row>
+    <row r="8" spans="1:6" ht="59.4">
       <c r="A8" s="2" t="s">
         <v>61</v>
       </c>
@@ -4132,9 +4172,9 @@
       <c r="D8" s="16" t="s">
         <v>62</v>
       </c>
-      <c r="E8" s="55"/>
-    </row>
-    <row r="9" spans="1:6" ht="58.5">
+      <c r="E8" s="57"/>
+    </row>
+    <row r="9" spans="1:6" ht="59.4">
       <c r="A9" s="2" t="s">
         <v>63</v>
       </c>
@@ -4145,7 +4185,7 @@
       <c r="D9" s="16" t="s">
         <v>64</v>
       </c>
-      <c r="E9" s="55"/>
+      <c r="E9" s="57"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -4161,24 +4201,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F8D8B0A-023E-C549-AE78-3F128CD16C5F}">
   <dimension ref="A1:E6"/>
   <sheetViews>
-    <sheetView zoomScale="89" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView topLeftCell="A4" zoomScale="89" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="19.5"/>
+  <sheetFormatPr defaultColWidth="11.54296875" defaultRowHeight="19.8"/>
   <cols>
-    <col min="1" max="1" width="20.21875" customWidth="1"/>
+    <col min="1" max="1" width="20.1796875" customWidth="1"/>
     <col min="2" max="2" width="35" customWidth="1"/>
-    <col min="3" max="3" width="54.77734375" customWidth="1"/>
-    <col min="4" max="4" width="55.21875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="54.81640625" customWidth="1"/>
+    <col min="4" max="4" width="55.1796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="40.5">
+    <row r="1" spans="1:5" ht="40.799999999999997">
       <c r="A1" s="8" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="33.75" thickBot="1">
+    <row r="2" spans="1:5" ht="33" thickBot="1">
       <c r="A2" s="1"/>
       <c r="E2" s="42" t="s">
         <v>1</v>
@@ -4202,8 +4242,8 @@
       <c r="A4" s="21" t="s">
         <v>65</v>
       </c>
-      <c r="B4" s="57" t="s">
-        <v>104</v>
+      <c r="B4" s="53" t="s">
+        <v>108</v>
       </c>
       <c r="C4" s="36" t="s">
         <v>73</v>
@@ -4214,7 +4254,9 @@
       <c r="A5" s="21" t="s">
         <v>66</v>
       </c>
-      <c r="B5" s="28"/>
+      <c r="B5" s="51" t="s">
+        <v>104</v>
+      </c>
       <c r="C5" s="36" t="s">
         <v>74</v>
       </c>
@@ -4224,7 +4266,7 @@
       <c r="A6" s="23" t="s">
         <v>67</v>
       </c>
-      <c r="B6" s="56" t="s">
+      <c r="B6" s="52" t="s">
         <v>103</v>
       </c>
       <c r="C6" s="37" t="s">
@@ -4238,10 +4280,11 @@
   <phoneticPr fontId="2"/>
   <hyperlinks>
     <hyperlink ref="B6" r:id="rId1" xr:uid="{1E195485-7380-4FF3-BCD5-68F82BD482EC}"/>
-    <hyperlink ref="B4" r:id="rId2" tooltip="https://drive.google.com/file/d/1M3vQ_4vFORTF7o6EKHyesz8TEivRhbkL/view?usp=sharing" xr:uid="{70492577-D87A-4118-98D9-E3C49687F36A}"/>
+    <hyperlink ref="B4" r:id="rId2" xr:uid="{70492577-D87A-4118-98D9-E3C49687F36A}"/>
+    <hyperlink ref="B5" r:id="rId3" xr:uid="{37769C87-FDFC-49B9-AD9C-DDE61F7A963D}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId3"/>
+  <drawing r:id="rId4"/>
 </worksheet>
 </file>
 
@@ -4249,24 +4292,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D266291A-D3DF-0A40-B68B-E14D6C8EBC3A}">
   <dimension ref="A1:E11"/>
   <sheetViews>
-    <sheetView zoomScale="83" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="83" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="19.5"/>
+  <sheetFormatPr defaultColWidth="11.54296875" defaultRowHeight="19.8"/>
   <cols>
-    <col min="1" max="1" width="25.5546875" customWidth="1"/>
-    <col min="2" max="2" width="63.21875" customWidth="1"/>
-    <col min="3" max="3" width="54.77734375" customWidth="1"/>
+    <col min="1" max="1" width="25.54296875" customWidth="1"/>
+    <col min="2" max="2" width="63.1796875" customWidth="1"/>
+    <col min="3" max="3" width="54.81640625" customWidth="1"/>
     <col min="4" max="4" width="28" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="40.5">
+    <row r="1" spans="1:5" ht="40.799999999999997">
       <c r="A1" s="8" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="33.75" thickBot="1">
+    <row r="2" spans="1:5" ht="33" thickBot="1">
       <c r="A2" s="1"/>
       <c r="E2" s="42" t="s">
         <v>1</v>
@@ -4286,7 +4329,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="58.5">
+    <row r="4" spans="1:5" ht="59.4">
       <c r="A4" s="47" t="s">
         <v>80</v>
       </c>
@@ -4298,7 +4341,7 @@
       </c>
       <c r="D4" s="3"/>
     </row>
-    <row r="5" spans="1:5" ht="58.5">
+    <row r="5" spans="1:5" ht="59.4">
       <c r="A5" s="47" t="s">
         <v>79</v>
       </c>
@@ -4310,7 +4353,7 @@
       </c>
       <c r="D5" s="3"/>
     </row>
-    <row r="6" spans="1:5" ht="58.5">
+    <row r="6" spans="1:5" ht="59.4">
       <c r="A6" s="47" t="s">
         <v>78</v>
       </c>
@@ -4322,7 +4365,7 @@
       </c>
       <c r="D6" s="3"/>
     </row>
-    <row r="7" spans="1:5" ht="58.5">
+    <row r="7" spans="1:5" ht="59.4">
       <c r="A7" s="47" t="s">
         <v>81</v>
       </c>
@@ -4334,7 +4377,7 @@
       </c>
       <c r="D7" s="3"/>
     </row>
-    <row r="8" spans="1:5" ht="58.5">
+    <row r="8" spans="1:5" ht="59.4">
       <c r="A8" s="47" t="s">
         <v>82</v>
       </c>
@@ -4346,7 +4389,7 @@
       </c>
       <c r="D8" s="3"/>
     </row>
-    <row r="9" spans="1:5" ht="58.5">
+    <row r="9" spans="1:5" ht="59.4">
       <c r="A9" s="47" t="s">
         <v>83</v>
       </c>
@@ -4358,7 +4401,7 @@
       </c>
       <c r="D9" s="3"/>
     </row>
-    <row r="10" spans="1:5" ht="58.5">
+    <row r="10" spans="1:5" ht="59.4">
       <c r="A10" s="47" t="s">
         <v>84</v>
       </c>
@@ -4370,7 +4413,7 @@
       </c>
       <c r="D10" s="3"/>
     </row>
-    <row r="11" spans="1:5" ht="59.25" thickBot="1">
+    <row r="11" spans="1:5" ht="60" thickBot="1">
       <c r="A11" s="48" t="s">
         <v>85</v>
       </c>
@@ -4400,30 +4443,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="214516ad-30b3-4e82-9e31-d9abf9a085e8" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="52801ccf-b025-40a5-bb2d-5fc5cb528cef">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <_x5b66__x5e74_ xmlns="52801ccf-b025-40a5-bb2d-5fc5cb528cef" xsi:nil="true"/>
-    <_x30bf__x30b0_ xmlns="52801ccf-b025-40a5-bb2d-5fc5cb528cef" xsi:nil="true"/>
-    <_Flow_SignoffStatus xmlns="52801ccf-b025-40a5-bb2d-5fc5cb528cef" xsi:nil="true"/>
-    <_x4f5c__x6210__x65e5_ xmlns="52801ccf-b025-40a5-bb2d-5fc5cb528cef" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x010100226CB8C6968C904F9DBF96684D1C6194" ma:contentTypeVersion="23" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="12c173f0fc5c6fc0fd0293a63da4cb59">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="52801ccf-b025-40a5-bb2d-5fc5cb528cef" xmlns:ns3="214516ad-30b3-4e82-9e31-d9abf9a085e8" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="050145dfa9750e3da6db3a11e9fca638" ns2:_="" ns3:_="">
     <xsd:import namespace="52801ccf-b025-40a5-bb2d-5fc5cb528cef"/>
@@ -4710,10 +4729,45 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="214516ad-30b3-4e82-9e31-d9abf9a085e8" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="52801ccf-b025-40a5-bb2d-5fc5cb528cef">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <_x5b66__x5e74_ xmlns="52801ccf-b025-40a5-bb2d-5fc5cb528cef" xsi:nil="true"/>
+    <_x30bf__x30b0_ xmlns="52801ccf-b025-40a5-bb2d-5fc5cb528cef" xsi:nil="true"/>
+    <_Flow_SignoffStatus xmlns="52801ccf-b025-40a5-bb2d-5fc5cb528cef" xsi:nil="true"/>
+    <_x4f5c__x6210__x65e5_ xmlns="52801ccf-b025-40a5-bb2d-5fc5cb528cef" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{47E7B5EF-5B50-4E0B-A564-09CFCA71055C}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FB57451A-52F2-4206-834F-4C35AA45CE36}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="52801ccf-b025-40a5-bb2d-5fc5cb528cef"/>
+    <ds:schemaRef ds:uri="214516ad-30b3-4e82-9e31-d9abf9a085e8"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -4736,20 +4790,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FB57451A-52F2-4206-834F-4C35AA45CE36}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{47E7B5EF-5B50-4E0B-A564-09CFCA71055C}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="52801ccf-b025-40a5-bb2d-5fc5cb528cef"/>
-    <ds:schemaRef ds:uri="214516ad-30b3-4e82-9e31-d9abf9a085e8"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>